--- a/Engenharia de Software/descricao de caso de uso.xlsx
+++ b/Engenharia de Software/descricao de caso de uso.xlsx
@@ -5,16 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis_\Documents\GitHub\Engenharia-software-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis_\Documents\GitHub\EngSof2-ProgInter\Engenharia de Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Escolher inquerito" sheetId="1" r:id="rId1"/>
     <sheet name="Criar Trilho" sheetId="2" r:id="rId2"/>
     <sheet name="Alterar trilho" sheetId="3" r:id="rId3"/>
+    <sheet name="Alterar inquérito" sheetId="4" r:id="rId4"/>
+    <sheet name="Consultar inquérito" sheetId="5" r:id="rId5"/>
+    <sheet name="Eliminar inquérito" sheetId="6" r:id="rId6"/>
+    <sheet name="Criar Utente" sheetId="7" r:id="rId7"/>
+    <sheet name="Consultar Utente" sheetId="8" r:id="rId8"/>
+    <sheet name="Alterar Utente" sheetId="9" r:id="rId9"/>
+    <sheet name="Eliminar Utente" sheetId="10" r:id="rId10"/>
+    <sheet name="Criar questionario" sheetId="11" r:id="rId11"/>
+    <sheet name="Alterar questionario" sheetId="12" r:id="rId12"/>
+    <sheet name="eliminar questionario" sheetId="13" r:id="rId13"/>
+    <sheet name="consultar questionario" sheetId="14" r:id="rId14"/>
+    <sheet name="Comparar trilhos" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="76">
   <si>
     <t>nome</t>
   </si>
@@ -185,6 +197,75 @@
   </si>
   <si>
     <t>o sistema devolve uma mensagem de erro na alteração de dados</t>
+  </si>
+  <si>
+    <t>Criar utente</t>
+  </si>
+  <si>
+    <t>o ator vai criar o seu profile</t>
+  </si>
+  <si>
+    <t>clicar no botão registar</t>
+  </si>
+  <si>
+    <t>o sistema devolve uma lista com todos os dados a preencher</t>
+  </si>
+  <si>
+    <t>o sistema devolve uma mensagem de sucesso</t>
+  </si>
+  <si>
+    <t>o ator clica no botão registar</t>
+  </si>
+  <si>
+    <t>Já existe alguem registado</t>
+  </si>
+  <si>
+    <t>verificar se o sistema devolve os dados necessarios</t>
+  </si>
+  <si>
+    <t>Consultar utente</t>
+  </si>
+  <si>
+    <t>o ator vai consultar o seu profile</t>
+  </si>
+  <si>
+    <t>clicar no botão profile</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com o profile do utente</t>
+  </si>
+  <si>
+    <t>login feito</t>
+  </si>
+  <si>
+    <t>Alterar utente</t>
+  </si>
+  <si>
+    <t>o ator vai alterar o seu profile</t>
+  </si>
+  <si>
+    <t>o ator clicar no botão profile</t>
+  </si>
+  <si>
+    <t>o ator clica no botão alterar</t>
+  </si>
+  <si>
+    <t>o ator altera os dados pretendidos e clica no botao alterar</t>
+  </si>
+  <si>
+    <t>Eliminar utente</t>
+  </si>
+  <si>
+    <t>o ator vai Eliminar o seu profile</t>
+  </si>
+  <si>
+    <t>o ator clica no botão eliminar</t>
+  </si>
+  <si>
+    <t>o sistema devolve uma mensagem a solicitar confirmação</t>
+  </si>
+  <si>
+    <t>o ator confirma</t>
   </si>
 </sst>
 </file>
@@ -654,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,11 +922,249 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1219,4 +1538,552 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Engenharia de Software/descricao de caso de uso.xlsx
+++ b/Engenharia de Software/descricao de caso de uso.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Escolher inquerito" sheetId="1" r:id="rId1"/>
-    <sheet name="Criar Trilho" sheetId="2" r:id="rId2"/>
-    <sheet name="Alterar trilho" sheetId="3" r:id="rId3"/>
+    <sheet name="Criar Trilho" sheetId="2" r:id="rId1"/>
+    <sheet name="Alterar trilho" sheetId="3" r:id="rId2"/>
+    <sheet name="Criar inquerito" sheetId="16" r:id="rId3"/>
     <sheet name="Alterar inquérito" sheetId="4" r:id="rId4"/>
     <sheet name="Consultar inquérito" sheetId="5" r:id="rId5"/>
     <sheet name="Eliminar inquérito" sheetId="6" r:id="rId6"/>
@@ -22,11 +22,12 @@
     <sheet name="Consultar Utente" sheetId="8" r:id="rId8"/>
     <sheet name="Alterar Utente" sheetId="9" r:id="rId9"/>
     <sheet name="Eliminar Utente" sheetId="10" r:id="rId10"/>
-    <sheet name="Criar questionario" sheetId="11" r:id="rId11"/>
+    <sheet name="Responder questionario" sheetId="11" r:id="rId11"/>
     <sheet name="Alterar questionario" sheetId="12" r:id="rId12"/>
     <sheet name="eliminar questionario" sheetId="13" r:id="rId13"/>
     <sheet name="consultar questionario" sheetId="14" r:id="rId14"/>
     <sheet name="Comparar trilhos" sheetId="15" r:id="rId15"/>
+    <sheet name="Escolher inquerito" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="87">
   <si>
     <t>nome</t>
   </si>
@@ -266,6 +267,39 @@
   </si>
   <si>
     <t>o ator confirma</t>
+  </si>
+  <si>
+    <t>Responder questionario</t>
+  </si>
+  <si>
+    <t>o ator vai responder ao questionario</t>
+  </si>
+  <si>
+    <t>clicar no botão questionario</t>
+  </si>
+  <si>
+    <t>login, inqueritos</t>
+  </si>
+  <si>
+    <t>o sistema devolve um questionario</t>
+  </si>
+  <si>
+    <t>o ator responde ao questionario e clica em submeter</t>
+  </si>
+  <si>
+    <t>O sistema não devolve um questionario</t>
+  </si>
+  <si>
+    <t>Criar Inquérito</t>
+  </si>
+  <si>
+    <t>o ator vai criar o inquerito</t>
+  </si>
+  <si>
+    <t>clicar no botão novo</t>
+  </si>
+  <si>
+    <t>o ator preenche os dados e clica em submeter</t>
   </si>
 </sst>
 </file>
@@ -735,21 +769,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -760,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -768,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,20 +862,24 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -882,7 +916,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +924,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -898,7 +932,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +952,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -927,7 +960,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,12 +1135,174 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1160,21 +1355,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -1185,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1193,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1201,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1257,24 +1456,20 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1311,7 +1506,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1319,7 +1514,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1522,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1347,10 +1542,11 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -1519,6 +1715,174 @@
       <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>

--- a/Engenharia de Software/descricao de caso de uso.xlsx
+++ b/Engenharia de Software/descricao de caso de uso.xlsx
@@ -9,25 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Criar Trilho" sheetId="2" r:id="rId1"/>
-    <sheet name="Alterar trilho" sheetId="3" r:id="rId2"/>
-    <sheet name="Criar inquerito" sheetId="16" r:id="rId3"/>
-    <sheet name="Alterar inquérito" sheetId="4" r:id="rId4"/>
-    <sheet name="Consultar inquérito" sheetId="5" r:id="rId5"/>
-    <sheet name="Eliminar inquérito" sheetId="6" r:id="rId6"/>
-    <sheet name="Criar Utente" sheetId="7" r:id="rId7"/>
-    <sheet name="Consultar Utente" sheetId="8" r:id="rId8"/>
-    <sheet name="Alterar Utente" sheetId="9" r:id="rId9"/>
-    <sheet name="Eliminar Utente" sheetId="10" r:id="rId10"/>
-    <sheet name="Responder questionario" sheetId="11" r:id="rId11"/>
-    <sheet name="Alterar questionario" sheetId="12" r:id="rId12"/>
-    <sheet name="eliminar questionario" sheetId="13" r:id="rId13"/>
-    <sheet name="consultar questionario" sheetId="14" r:id="rId14"/>
-    <sheet name="Comparar trilhos" sheetId="15" r:id="rId15"/>
-    <sheet name="Escolher inquerito" sheetId="1" r:id="rId16"/>
+    <sheet name="Criar inquerito" sheetId="16" r:id="rId1"/>
+    <sheet name="Alterar inquérito" sheetId="4" r:id="rId2"/>
+    <sheet name="Consultar inquérito" sheetId="5" r:id="rId3"/>
+    <sheet name="Eliminar inquérito" sheetId="6" r:id="rId4"/>
+    <sheet name="Responder questionario" sheetId="11" r:id="rId5"/>
+    <sheet name="eliminar questionario" sheetId="13" r:id="rId6"/>
+    <sheet name="consultar questionario" sheetId="14" r:id="rId7"/>
+    <sheet name="Criar Utente" sheetId="7" r:id="rId8"/>
+    <sheet name="Consultar Utente" sheetId="8" r:id="rId9"/>
+    <sheet name="Alterar Utente" sheetId="9" r:id="rId10"/>
+    <sheet name="Eliminar Utente" sheetId="10" r:id="rId11"/>
+    <sheet name="Comparar trilhos" sheetId="15" r:id="rId12"/>
+    <sheet name="Escolher inquerito" sheetId="1" r:id="rId13"/>
+    <sheet name="Criar Trilho" sheetId="2" r:id="rId14"/>
+    <sheet name="Alterar trilho" sheetId="3" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="111">
   <si>
     <t>nome</t>
   </si>
@@ -278,9 +277,6 @@
     <t>clicar no botão questionario</t>
   </si>
   <si>
-    <t>login, inqueritos</t>
-  </si>
-  <si>
     <t>o sistema devolve um questionario</t>
   </si>
   <si>
@@ -300,6 +296,81 @@
   </si>
   <si>
     <t>o ator preenche os dados e clica em submeter</t>
+  </si>
+  <si>
+    <t>Alterar Inquérito</t>
+  </si>
+  <si>
+    <t>o ator vai alterar o inquerito</t>
+  </si>
+  <si>
+    <t>clicar no botão Editar inquerito</t>
+  </si>
+  <si>
+    <t>consultar inquerito</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com os dados a Alterar</t>
+  </si>
+  <si>
+    <t>Dados invalido</t>
+  </si>
+  <si>
+    <t>Consultar Inquérito</t>
+  </si>
+  <si>
+    <t>o ator vai consultar inquerito</t>
+  </si>
+  <si>
+    <t>clicar no botão Survey</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com todos os Surveys</t>
+  </si>
+  <si>
+    <t>Não existem surveys</t>
+  </si>
+  <si>
+    <t>Eliminar Inquérito</t>
+  </si>
+  <si>
+    <t>o ator vai eliminar o inquerito</t>
+  </si>
+  <si>
+    <t>clicar no botão eliminar inquerito</t>
+  </si>
+  <si>
+    <t>Eliminar questionario</t>
+  </si>
+  <si>
+    <t>o ator vai eliminar o questionario</t>
+  </si>
+  <si>
+    <t>consultar questionario</t>
+  </si>
+  <si>
+    <t>clicar no botão eliminar</t>
+  </si>
+  <si>
+    <t>o sistema elimina o questionario (coloca no estado inativo)</t>
+  </si>
+  <si>
+    <t>o sistema elimina o inquerito (coloca no estado inativo)</t>
+  </si>
+  <si>
+    <t>Consultar questionario</t>
+  </si>
+  <si>
+    <t>o ator vai consultar questionario</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com o questionario</t>
+  </si>
+  <si>
+    <t>Não existe questionario</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com os dados a alterar</t>
   </si>
 </sst>
 </file>
@@ -767,16 +838,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -790,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,16 +869,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -820,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,92 +927,52 @@
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -957,10 +986,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -988,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1026,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1034,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1042,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,64 +1093,48 @@
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1135,16 +1148,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -1158,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,90 +1225,74 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1311,7 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1320,42 +1317,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -1546,12 +1507,202 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,12 +1887,416 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1769,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1817,82 +2372,62 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1904,54 +2439,148 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection activeCell="B15" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -1965,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,106 +2630,66 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
+      <c r="A9" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2114,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2145,16 +2734,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2167,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2175,94 +2762,82 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2276,16 +2851,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -2299,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2307,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2329,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,106 +2916,58 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Engenharia de Software/descricao de caso de uso.xlsx
+++ b/Engenharia de Software/descricao de caso de uso.xlsx
@@ -9,24 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Escolher inquerito" sheetId="1" r:id="rId1"/>
-    <sheet name="Criar Trilho" sheetId="2" r:id="rId2"/>
-    <sheet name="Alterar trilho" sheetId="3" r:id="rId3"/>
-    <sheet name="Alterar inquérito" sheetId="4" r:id="rId4"/>
-    <sheet name="Consultar inquérito" sheetId="5" r:id="rId5"/>
-    <sheet name="Eliminar inquérito" sheetId="6" r:id="rId6"/>
-    <sheet name="Criar Utente" sheetId="7" r:id="rId7"/>
-    <sheet name="Consultar Utente" sheetId="8" r:id="rId8"/>
-    <sheet name="Alterar Utente" sheetId="9" r:id="rId9"/>
-    <sheet name="Eliminar Utente" sheetId="10" r:id="rId10"/>
-    <sheet name="Criar questionario" sheetId="11" r:id="rId11"/>
-    <sheet name="Alterar questionario" sheetId="12" r:id="rId12"/>
-    <sheet name="eliminar questionario" sheetId="13" r:id="rId13"/>
-    <sheet name="consultar questionario" sheetId="14" r:id="rId14"/>
-    <sheet name="Comparar trilhos" sheetId="15" r:id="rId15"/>
+    <sheet name="Criar inquerito" sheetId="16" r:id="rId1"/>
+    <sheet name="Alterar inquérito" sheetId="4" r:id="rId2"/>
+    <sheet name="Consultar inquérito" sheetId="5" r:id="rId3"/>
+    <sheet name="Eliminar inquérito" sheetId="6" r:id="rId4"/>
+    <sheet name="Responder questionario" sheetId="11" r:id="rId5"/>
+    <sheet name="eliminar questionario" sheetId="13" r:id="rId6"/>
+    <sheet name="consultar questionario" sheetId="14" r:id="rId7"/>
+    <sheet name="Criar Utente" sheetId="7" r:id="rId8"/>
+    <sheet name="Consultar Utente" sheetId="8" r:id="rId9"/>
+    <sheet name="Alterar Utente" sheetId="9" r:id="rId10"/>
+    <sheet name="Eliminar Utente" sheetId="10" r:id="rId11"/>
+    <sheet name="Comparar trilhos" sheetId="15" r:id="rId12"/>
+    <sheet name="Escolher inquerito" sheetId="1" r:id="rId13"/>
+    <sheet name="Criar Trilho" sheetId="2" r:id="rId14"/>
+    <sheet name="Alterar trilho" sheetId="3" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="111">
   <si>
     <t>nome</t>
   </si>
@@ -266,6 +266,111 @@
   </si>
   <si>
     <t>o ator confirma</t>
+  </si>
+  <si>
+    <t>Responder questionario</t>
+  </si>
+  <si>
+    <t>o ator vai responder ao questionario</t>
+  </si>
+  <si>
+    <t>clicar no botão questionario</t>
+  </si>
+  <si>
+    <t>o sistema devolve um questionario</t>
+  </si>
+  <si>
+    <t>o ator responde ao questionario e clica em submeter</t>
+  </si>
+  <si>
+    <t>O sistema não devolve um questionario</t>
+  </si>
+  <si>
+    <t>Criar Inquérito</t>
+  </si>
+  <si>
+    <t>o ator vai criar o inquerito</t>
+  </si>
+  <si>
+    <t>clicar no botão novo</t>
+  </si>
+  <si>
+    <t>o ator preenche os dados e clica em submeter</t>
+  </si>
+  <si>
+    <t>Alterar Inquérito</t>
+  </si>
+  <si>
+    <t>o ator vai alterar o inquerito</t>
+  </si>
+  <si>
+    <t>clicar no botão Editar inquerito</t>
+  </si>
+  <si>
+    <t>consultar inquerito</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com os dados a Alterar</t>
+  </si>
+  <si>
+    <t>Dados invalido</t>
+  </si>
+  <si>
+    <t>Consultar Inquérito</t>
+  </si>
+  <si>
+    <t>o ator vai consultar inquerito</t>
+  </si>
+  <si>
+    <t>clicar no botão Survey</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com todos os Surveys</t>
+  </si>
+  <si>
+    <t>Não existem surveys</t>
+  </si>
+  <si>
+    <t>Eliminar Inquérito</t>
+  </si>
+  <si>
+    <t>o ator vai eliminar o inquerito</t>
+  </si>
+  <si>
+    <t>clicar no botão eliminar inquerito</t>
+  </si>
+  <si>
+    <t>Eliminar questionario</t>
+  </si>
+  <si>
+    <t>o ator vai eliminar o questionario</t>
+  </si>
+  <si>
+    <t>consultar questionario</t>
+  </si>
+  <si>
+    <t>clicar no botão eliminar</t>
+  </si>
+  <si>
+    <t>o sistema elimina o questionario (coloca no estado inativo)</t>
+  </si>
+  <si>
+    <t>o sistema elimina o inquerito (coloca no estado inativo)</t>
+  </si>
+  <si>
+    <t>Consultar questionario</t>
+  </si>
+  <si>
+    <t>o ator vai consultar questionario</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com o questionario</t>
+  </si>
+  <si>
+    <t>Não existe questionario</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com os dados a alterar</t>
   </si>
 </sst>
 </file>
@@ -733,9 +838,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
@@ -922,245 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -1350,12 +1697,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,54 +1887,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -1601,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1609,14 +1920,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1629,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,86 +1970,62 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1748,12 +2037,266 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,16 +2324,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1803,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1811,94 +2352,492 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1912,16 +2851,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -1935,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1943,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1965,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,106 +2916,58 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Engenharia de Software/descricao de caso de uso.xlsx
+++ b/Engenharia de Software/descricao de caso de uso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" firstSheet="6"/>
   </bookViews>
   <sheets>
     <sheet name="Criar inquerito" sheetId="16" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="Consultar Utente" sheetId="8" r:id="rId9"/>
     <sheet name="Alterar Utente" sheetId="9" r:id="rId10"/>
     <sheet name="Eliminar Utente" sheetId="10" r:id="rId11"/>
-    <sheet name="Comparar trilhos" sheetId="15" r:id="rId12"/>
-    <sheet name="Escolher inquerito" sheetId="1" r:id="rId13"/>
-    <sheet name="Criar Trilho" sheetId="2" r:id="rId14"/>
-    <sheet name="Alterar trilho" sheetId="3" r:id="rId15"/>
+    <sheet name="Escolher inquerito" sheetId="1" r:id="rId12"/>
+    <sheet name="Criar Trilho" sheetId="2" r:id="rId13"/>
+    <sheet name="Alterar trilho" sheetId="3" r:id="rId14"/>
+    <sheet name="Comparar trilhos" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -840,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
@@ -1306,18 +1306,6 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1507,7 +1495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -1697,7 +1685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -1883,6 +1871,18 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Engenharia de Software/descricao de caso de uso.xlsx
+++ b/Engenharia de Software/descricao de caso de uso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" firstSheet="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Criar inquerito" sheetId="16" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="Escolher inquerito" sheetId="1" r:id="rId12"/>
     <sheet name="Criar Trilho" sheetId="2" r:id="rId13"/>
     <sheet name="Alterar trilho" sheetId="3" r:id="rId14"/>
-    <sheet name="Comparar trilhos" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -840,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
@@ -1689,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1871,18 +1870,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Engenharia de Software/descricao de caso de uso.xlsx
+++ b/Engenharia de Software/descricao de caso de uso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Criar inquerito" sheetId="16" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>clicar no botão Alterar trilho</t>
   </si>
   <si>
-    <t>o sistema devolve um formulario com os dados do trilho</t>
-  </si>
-  <si>
     <t>o ator altera os dados do formulario desejados e clica no botao alterar</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>clicar no botão registar</t>
   </si>
   <si>
-    <t>o sistema devolve uma lista com todos os dados a preencher</t>
-  </si>
-  <si>
     <t>o sistema devolve uma mensagem de sucesso</t>
   </si>
   <si>
@@ -309,9 +303,6 @@
     <t>consultar inquerito</t>
   </si>
   <si>
-    <t>o sistema devolve um formulario com os dados a Alterar</t>
-  </si>
-  <si>
     <t>Dados invalido</t>
   </si>
   <si>
@@ -321,12 +312,6 @@
     <t>o ator vai consultar inquerito</t>
   </si>
   <si>
-    <t>clicar no botão Survey</t>
-  </si>
-  <si>
-    <t>o sistema devolve um formulario com todos os Surveys</t>
-  </si>
-  <si>
     <t>Não existem surveys</t>
   </si>
   <si>
@@ -369,7 +354,22 @@
     <t>Não existe questionario</t>
   </si>
   <si>
-    <t>o sistema devolve um formulario com os dados a alterar</t>
+    <t>o sistema devolve um formulario com os dados() do trilho</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com os dados(PerguntaID, Pergunta, EstadoPergunta, DoencaID, DoencaNome, Descricao, Cuidado, Per_ResID, PerguntaID, DoencaID, Resp_Por_PergID, Tipo_Resposta_PerguntaID, Tipo_Resposta, RespostaPossivel) a preencher</t>
+  </si>
+  <si>
+    <t>clicar no botão visualizar</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com todas as perguntas e respostas</t>
+  </si>
+  <si>
+    <t>o sistema devolve uma lista com todos os dados(Nome, Telefone, Genero, Data_Nascimento, NIF, Email, Contacto_Emergencia, EstadoTurista) a preencher</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com os dados(Nome, Telefone, Genero, Data_Nascimento, NIF, Email, Contacto_Emergencia, EstadoTurista) a alterar</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -522,6 +522,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,7 +852,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,16 +899,16 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
+      <c r="B7" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +976,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -988,7 +1000,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,14 +1066,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1070,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1138,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1170,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1200,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1208,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1216,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1240,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1296,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1307,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
@@ -1688,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1809,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,7 +1891,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1907,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1915,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1929,15 +1941,15 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
+      <c r="B7" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1945,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1953,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1967,7 +1979,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,7 +2017,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2029,13 +2041,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
@@ -2049,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2077,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,7 +2111,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2137,7 +2149,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2181,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2189,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2197,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2211,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2219,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2303,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2311,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2331,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2339,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2347,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2355,7 +2367,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,7 +2381,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2407,7 +2419,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2451,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2459,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2467,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2537,7 +2549,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2561,7 +2573,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2589,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2609,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2631,7 +2643,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +2681,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2693,7 +2705,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,15 +2753,15 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
+      <c r="B7" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2757,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2779,7 +2791,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,7 +2829,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2861,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2869,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2891,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,7 +2911,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2959,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Engenharia de Software/descricao de caso de uso.xlsx
+++ b/Engenharia de Software/descricao de caso de uso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7965" firstSheet="11" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Criar inquerito" sheetId="16" r:id="rId1"/>
@@ -17,15 +17,15 @@
     <sheet name="Consultar inquérito" sheetId="5" r:id="rId3"/>
     <sheet name="Eliminar inquérito" sheetId="6" r:id="rId4"/>
     <sheet name="Responder questionario" sheetId="11" r:id="rId5"/>
-    <sheet name="eliminar questionario" sheetId="13" r:id="rId6"/>
-    <sheet name="consultar questionario" sheetId="14" r:id="rId7"/>
-    <sheet name="Criar Utente" sheetId="7" r:id="rId8"/>
-    <sheet name="Consultar Utente" sheetId="8" r:id="rId9"/>
-    <sheet name="Alterar Utente" sheetId="9" r:id="rId10"/>
-    <sheet name="Eliminar Utente" sheetId="10" r:id="rId11"/>
-    <sheet name="Escolher inquerito" sheetId="1" r:id="rId12"/>
-    <sheet name="Criar Trilho" sheetId="2" r:id="rId13"/>
-    <sheet name="Alterar trilho" sheetId="3" r:id="rId14"/>
+    <sheet name="consultar questionario" sheetId="14" r:id="rId6"/>
+    <sheet name="Criar Utente" sheetId="7" r:id="rId7"/>
+    <sheet name="Consultar Utente" sheetId="8" r:id="rId8"/>
+    <sheet name="Alterar Utente" sheetId="9" r:id="rId9"/>
+    <sheet name="Eliminar Utente" sheetId="10" r:id="rId10"/>
+    <sheet name="Escolher Trilho mais adequado" sheetId="1" r:id="rId11"/>
+    <sheet name="Criar Trilho" sheetId="2" r:id="rId12"/>
+    <sheet name="Alterar trilho" sheetId="3" r:id="rId13"/>
+    <sheet name="eliminar questionario" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="113">
   <si>
     <t>nome</t>
   </si>
@@ -60,39 +60,12 @@
     <t>pós-condição</t>
   </si>
   <si>
-    <t>Escolher inquerito de avaliação de trilho e a utente</t>
-  </si>
-  <si>
-    <t>o ator vai escolher/vizualizar um entre os varios inqueritos feitos ao trilhos</t>
-  </si>
-  <si>
-    <t>selecionar trilho</t>
-  </si>
-  <si>
-    <t>clicar no botão visualizar inqueritos</t>
-  </si>
-  <si>
-    <t>o sistema devolve uma lista com todos os inqueritos do trilho</t>
-  </si>
-  <si>
-    <t>o ator escolhe 1 ou mais inqueritos para visualizar e comparar</t>
-  </si>
-  <si>
-    <t>o sistema devolve um formulario com todos os dados selecionados</t>
-  </si>
-  <si>
     <t>1.a</t>
   </si>
   <si>
-    <t>não existem inqueritos</t>
-  </si>
-  <si>
     <t>4.a</t>
   </si>
   <si>
-    <t>não devolveu um formularios</t>
-  </si>
-  <si>
     <t>texto do botão</t>
   </si>
   <si>
@@ -270,21 +243,12 @@
     <t>clicar no botão questionario</t>
   </si>
   <si>
-    <t>o sistema devolve um questionario</t>
-  </si>
-  <si>
-    <t>o ator responde ao questionario e clica em submeter</t>
-  </si>
-  <si>
     <t>O sistema não devolve um questionario</t>
   </si>
   <si>
     <t>Criar Inquérito</t>
   </si>
   <si>
-    <t>o ator vai criar o inquerito</t>
-  </si>
-  <si>
     <t>clicar no botão novo</t>
   </si>
   <si>
@@ -294,9 +258,6 @@
     <t>Alterar Inquérito</t>
   </si>
   <si>
-    <t>o ator vai alterar o inquerito</t>
-  </si>
-  <si>
     <t>clicar no botão Editar inquerito</t>
   </si>
   <si>
@@ -309,9 +270,6 @@
     <t>Consultar Inquérito</t>
   </si>
   <si>
-    <t>o ator vai consultar inquerito</t>
-  </si>
-  <si>
     <t>Não existem surveys</t>
   </si>
   <si>
@@ -348,28 +306,76 @@
     <t>o ator vai consultar questionario</t>
   </si>
   <si>
-    <t>o sistema devolve um formulario com o questionario</t>
-  </si>
-  <si>
     <t>Não existe questionario</t>
   </si>
   <si>
     <t>o sistema devolve um formulario com os dados() do trilho</t>
   </si>
   <si>
-    <t>o sistema devolve um formulario com os dados(PerguntaID, Pergunta, EstadoPergunta, DoencaID, DoencaNome, Descricao, Cuidado, Per_ResID, PerguntaID, DoencaID, Resp_Por_PergID, Tipo_Resposta_PerguntaID, Tipo_Resposta, RespostaPossivel) a preencher</t>
-  </si>
-  <si>
     <t>clicar no botão visualizar</t>
   </si>
   <si>
     <t>o sistema devolve um formulario com todas as perguntas e respostas</t>
   </si>
   <si>
-    <t>o sistema devolve uma lista com todos os dados(Nome, Telefone, Genero, Data_Nascimento, NIF, Email, Contacto_Emergencia, EstadoTurista) a preencher</t>
-  </si>
-  <si>
-    <t>o sistema devolve um formulario com os dados(Nome, Telefone, Genero, Data_Nascimento, NIF, Email, Contacto_Emergencia, EstadoTurista) a alterar</t>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com os dados(PerguntaID, PerguntaNome, EstadoPergunta, RespostaID, Dificuldade, RespostaPossivel) a preencher</t>
+  </si>
+  <si>
+    <t>o sistema devolve uma lista com todas as perguntas existentes</t>
+  </si>
+  <si>
+    <t>o ator vai criar perguntas e criar/assossiar as resposta possiveis</t>
+  </si>
+  <si>
+    <t>o ator vai alterar as perguntas ou respostas</t>
+  </si>
+  <si>
+    <t>o ator vai consultar as perguntas existentes</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>consultar inquerito e login</t>
+  </si>
+  <si>
+    <t>o sistema devolve uma lista de perguntas a responder</t>
+  </si>
+  <si>
+    <t>o ator responde as perguntas e clica em submeter</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com todas as perguntas e respostas assossiadas</t>
+  </si>
+  <si>
+    <t>o sistema devolve uma lista com todos os dados(TuristaNome, Telemovel, Genero, Data_Nascimento, NIF, Email, Contacto_Emergencia) a preencher</t>
+  </si>
+  <si>
+    <t>o sistema devolve um formulario com o profile do utente. (dados: TuristaNome, Telemovel, Genero, Data_Nascimento, NIF, Email, Contacto_Emergencia)</t>
+  </si>
+  <si>
+    <t>o sistema devolve uma lista com todos os dados(TuristaNome, Telemovel, Genero, Data_Nascimento, NIF, Email, Contacto_Emergencia) a Alterar</t>
+  </si>
+  <si>
+    <t>Questionario respondido</t>
+  </si>
+  <si>
+    <t>clicar no botão trilho recomendado</t>
+  </si>
+  <si>
+    <t>o sistema devolve uma lista com o questionario respondido e os trilhos mais adequados</t>
+  </si>
+  <si>
+    <t>Visualizar o Trilho mais adequado</t>
+  </si>
+  <si>
+    <t>o ator vai vizualizar o trilho mais adequado as respostas dadas no questionario</t>
+  </si>
+  <si>
+    <t>não respondeu ao questionario</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -516,12 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -532,8 +532,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,27 +855,27 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,14 +883,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -899,16 +904,16 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>106</v>
+      <c r="B7" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +921,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -924,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,34 +954,34 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -984,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -997,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,17 +1015,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1058,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1066,15 +1071,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>110</v>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1082,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,7 +1095,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,53 +1105,49 @@
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2"/>
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1159,168 +1160,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,17 +1177,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1374,32 +1217,24 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
+      <c r="B7" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1413,19 +1248,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1439,50 +1270,50 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1325,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -1521,17 +1352,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1539,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1569,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1577,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,26 +1431,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,50 +1461,50 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1516,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -1711,17 +1542,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1737,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1751,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1775,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,26 +1621,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,50 +1651,50 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1875,7 +1706,137 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1891,27 +1852,27 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1919,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,15 +1902,15 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>106</v>
+      <c r="B7" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1965,7 +1926,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1976,10 +1937,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,34 +1951,34 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2025,7 +1986,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2002,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,17 +2012,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2069,14 +2030,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2089,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2097,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2108,10 +2071,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2122,34 +2085,34 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2157,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2183,17 +2146,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2201,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2209,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2223,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2231,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,26 +2215,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2279,7 +2242,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +2258,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,17 +2268,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2323,14 +2286,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2343,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2351,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2359,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2367,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,10 +2343,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,34 +2357,34 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2427,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2443,27 +2408,27 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,8 +2476,12 @@
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2522,34 +2491,34 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2557,7 +2526,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2570,30 +2539,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2601,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,75 +2590,91 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>103</v>
+      <c r="B7" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2687,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -2715,17 +2700,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,14 +2718,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2753,91 +2740,71 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>109</v>
+      <c r="B7" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2"/>
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2850,30 +2817,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2881,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2903,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,63 +2878,95 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
+      <c r="A11" s="1">
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
